--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_104__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_104__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5531,7 +5531,7 @@
                   <c:v>97.48114013671875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.52705383300781</c:v>
+                  <c:v>59.52705001831055</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>95.14784240722656</c:v>
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.52705383300781</v>
+        <v>59.52705001831055</v>
       </c>
     </row>
     <row r="41" spans="1:6">
